--- a/Documentation/Sets/FighterSheet.xlsx
+++ b/Documentation/Sets/FighterSheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -19,9 +19,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Neutral (a)</t>
-  </si>
-  <si>
     <t>Special (b)</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>Erwin</t>
   </si>
   <si>
-    <t>(HIT)Nothing special</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -86,31 +80,16 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">◄: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>►:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
+      <t>◄/►:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Motor(Wario)</t>
     </r>
     <r>
       <t xml:space="preserve">. </t>
@@ -190,6 +169,15 @@
       <rPr>
         <b/>
       </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <t>►</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
@@ -199,7 +187,176 @@
       <t>Placeholder</t>
     </r>
     <r>
-      <t>. ►</t>
+      <t>. ◙</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Stickman tekenen&gt;Kilt andere spelers, Met vele splash colors</t>
+  </si>
+  <si>
+    <t>Pokemon vangen(PokemonGo)</t>
+  </si>
+  <si>
+    <t>Death star</t>
+  </si>
+  <si>
+    <t>Erwin Henraat</t>
+  </si>
+  <si>
+    <t>RichardS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▲:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▼:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>◄/►:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>◙:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>ModerneDans&gt;IdereenSlaapt</t>
+  </si>
+  <si>
+    <t>Placeholder</t>
+  </si>
+  <si>
+    <t>Photoshop</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Ray&lt;Vragen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▲:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▼:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>. ◄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <t>►</t>
     </r>
     <r>
       <rPr>
@@ -236,19 +393,7 @@
     </r>
   </si>
   <si>
-    <t>Stickman tekenen&gt;Kilt andere spelers, Met vele splash colors</t>
-  </si>
-  <si>
-    <t>Pokemon vangen(PokemonGo)</t>
-  </si>
-  <si>
-    <t>Death star</t>
-  </si>
-  <si>
-    <t>Erwin Henraat</t>
-  </si>
-  <si>
-    <t>RichardS</t>
+    <t>Erik</t>
   </si>
   <si>
     <r>
@@ -291,22 +436,7 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">◄: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>►:</t>
+      <t>◄/►:</t>
     </r>
     <r>
       <t xml:space="preserve"> </t>
@@ -327,23 +457,32 @@
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> Andere speler verblinden met cameraflits.</t>
-    </r>
-  </si>
-  <si>
-    <t>ModerneDans&gt;IdereenSlaapt</t>
-  </si>
-  <si>
-    <t>Placeholder</t>
-  </si>
-  <si>
-    <t>Photoshop</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Ray</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>RickRoll</t>
+  </si>
+  <si>
+    <t>Rank boven hoofd.[S+]/[NO. 1]</t>
+  </si>
+  <si>
+    <t>Crap! I'm broke!(Zie arcane kids website)</t>
+  </si>
+  <si>
+    <t>Jelle Shollema</t>
+  </si>
+  <si>
+    <t>Stephanie Koning</t>
   </si>
   <si>
     <r>
@@ -386,6 +525,15 @@
       <rPr>
         <b/>
       </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <t>►</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
@@ -395,7 +543,170 @@
       <t>Placeholder</t>
     </r>
     <r>
-      <t>. ►</t>
+      <t>. ◙</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Japanse aanval, tik op het derde oog.</t>
+  </si>
+  <si>
+    <t>Bokshouding met pinkjes omhoog</t>
+  </si>
+  <si>
+    <t>Yogazaal</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▲:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▼:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>◄/►:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>◙:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hoofd ontploft, Sterren vliegen alle kanten op. Er groeit een nieuw hoofd.</t>
+  </si>
+  <si>
+    <t>Duivels Lachje (Shovel Knight: Black Knight lachje)</t>
+  </si>
+  <si>
+    <t>Theater podium</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▲:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▼:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>. ◄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <t>►</t>
     </r>
     <r>
       <rPr>
@@ -432,7 +743,7 @@
     </r>
   </si>
   <si>
-    <t>Erik</t>
+    <t>Ed</t>
   </si>
   <si>
     <r>
@@ -475,22 +786,7 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">◄: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>►:</t>
+      <t>◄/►:</t>
     </r>
     <r>
       <t xml:space="preserve"> </t>
@@ -524,19 +820,10 @@
     </r>
   </si>
   <si>
-    <t>RickRoll</t>
-  </si>
-  <si>
-    <t>Rank boven hoofd.[S+]/[NO. 1]</t>
-  </si>
-  <si>
-    <t>Crap! I'm broke!(Zie arcane kids website)</t>
-  </si>
-  <si>
-    <t>Jelle Shollema</t>
-  </si>
-  <si>
-    <t>Placeholder.</t>
+    <t>Access point(Wi-Fi) die andere speler tegenwerkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vragen stellen(Hoe denk je dit nu op te lossen?) </t>
   </si>
   <si>
     <r>
@@ -579,6 +866,15 @@
       <rPr>
         <b/>
       </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <t>►</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
@@ -588,7 +884,155 @@
       <t>Placeholder</t>
     </r>
     <r>
-      <t>. ►</t>
+      <t>. ◙</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jelle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▲:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▼:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>◄/►:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>◙:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rechthoekige driehoek ander insluiten</t>
+  </si>
+  <si>
+    <t>Rustig kopje koffie drinken</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▲:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>▼:</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <t>. ◄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <t>►</t>
     </r>
     <r>
       <rPr>
@@ -625,9 +1069,6 @@
     </r>
   </si>
   <si>
-    <t>Leo</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -668,209 +1109,7 @@
       <rPr>
         <b/>
       </rPr>
-      <t xml:space="preserve">◄: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>►:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>◙:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Hoofd ontploft, Sterren vliegen alle kanten op. Er groeit een nieuw hoofd.</t>
-  </si>
-  <si>
-    <t>Duivels Lachje (Shovel Knight: Black Knight lachje)</t>
-  </si>
-  <si>
-    <t>Theater podium</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>▲:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>▼:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t>. ◄</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t>. ►</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t>. ◙</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>▲:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>▼:</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t xml:space="preserve">◄: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>►:</t>
+      <t>◄/►:</t>
     </r>
     <r>
       <t xml:space="preserve"> </t>
@@ -908,11 +1147,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <b/>
@@ -931,7 +1176,21 @@
       <i/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <color rgb="FFE06666"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFE06666"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFE06666"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FFE06666"/>
     </font>
     <font>
       <i/>
@@ -965,7 +1224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border/>
     <border>
       <left style="medium">
@@ -985,14 +1244,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1046,10 +1297,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1058,67 +1315,61 @@
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1145,43 +1396,46 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="3.43"/>
     <col customWidth="1" min="2" max="2" width="3.57"/>
-    <col customWidth="1" min="3" max="3" width="9.43"/>
-    <col customWidth="1" min="4" max="4" width="11.71"/>
-    <col customWidth="1" min="5" max="5" width="69.29"/>
-    <col customWidth="1" min="6" max="6" width="13.57"/>
-    <col customWidth="1" min="7" max="7" width="13.43"/>
-    <col customWidth="1" min="9" max="9" width="12.43"/>
-    <col customWidth="1" min="10" max="10" width="10.43"/>
-    <col customWidth="1" min="11" max="11" width="9.71"/>
+    <col customWidth="1" min="3" max="3" width="10.43"/>
+    <col customWidth="1" min="4" max="4" width="57.43"/>
+    <col customWidth="1" min="5" max="5" width="13.57"/>
+    <col customWidth="1" min="6" max="6" width="13.43"/>
+    <col customWidth="1" min="8" max="8" width="12.43"/>
+    <col customWidth="1" min="9" max="9" width="10.43"/>
+    <col customWidth="1" min="10" max="10" width="9.71"/>
+    <col customWidth="1" min="21" max="26" width="0.43"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="D1" s="1" t="str">
+        <f>HYPERLINK("https://docs.google.com/document/d/1TCKfcbZzr6RVea97tRf0cdPyWRbGb0DxEcZ0VGuD88Y/edit?usp=sharing","Character info document hobbies etc.")</f>
+        <v>Character info document hobbies etc.</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1189,56 +1443,50 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="11" t="b">
+      <c r="I3" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>2.0</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="17" t="b">
+      <c r="I4" s="15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1247,56 +1495,50 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="11" t="b">
+      <c r="I5" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="12">
+      <c r="B6" s="17">
         <v>4.0</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>28</v>
+      <c r="C6" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="17" t="b">
+        <v>27</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1305,57 +1547,51 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="11" t="b">
+      <c r="I7" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>6.0</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="17" t="b">
-        <v>0</v>
+      <c r="G8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1363,56 +1599,50 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="F9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="11" t="b">
+      <c r="H9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>8.0</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="17" t="b">
+      <c r="C10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1420,28 +1650,129 @@
       <c r="B11" s="7">
         <v>9.0</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="11" t="b">
+      <c r="C11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="7">
+        <v>11.0</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="7">
+        <v>13.0</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="10" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Documentation/Sets/FighterSheet.xlsx
+++ b/Documentation/Sets/FighterSheet.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project devs\TeacherSmash\Documentation\Sets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02825FDE-3598-4491-9F47-D32BF1196CAB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -43,73 +52,129 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◄/►:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Motor(Wario)</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -132,79 +197,137 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◄</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>►</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
         <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◙</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -227,73 +350,129 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◄/►:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -310,85 +489,140 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Ray&lt;Vragen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◄</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>►</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
         <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◙</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -399,73 +633,129 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◄/►:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -488,79 +778,137 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◄</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>►</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
         <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◙</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -580,73 +928,129 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◄/►:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -666,79 +1070,137 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◄</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>►</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
         <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◙</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -749,73 +1211,129 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◄/►:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -829,79 +1347,137 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◄</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>►</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
         <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◙</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -912,73 +1488,129 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◄/►:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -992,79 +1624,137 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◄</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>►</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
         <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. ◙</t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
   </si>
@@ -1072,84 +1762,143 @@
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▲:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>▼:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◄/►:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. </t>
     </r>
     <r>
       <rPr>
         <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>◙:</t>
     </r>
     <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-      </rPr>
-      <t>Placeholder</t>
-    </r>
-    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Placeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Ray</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -1157,45 +1906,65 @@
       <b/>
       <i/>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <color rgb="FFE06666"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="10"/>
       <color rgb="FFE06666"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFE06666"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color rgb="FFE06666"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1203,7 +1972,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1225,17 +1994,25 @@
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1250,17 +2027,20 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1275,11 +2055,16 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1288,131 +2073,388 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.43"/>
-    <col customWidth="1" min="2" max="2" width="3.57"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="57.43"/>
-    <col customWidth="1" min="5" max="5" width="13.57"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="8" max="8" width="12.43"/>
-    <col customWidth="1" min="9" max="9" width="10.43"/>
-    <col customWidth="1" min="10" max="10" width="9.71"/>
-    <col customWidth="1" min="21" max="26" width="0.43"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="21" max="26" width="0.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="str">
         <f>HYPERLINK("https://docs.google.com/document/d/1TCKfcbZzr6RVea97tRf0cdPyWRbGb0DxEcZ0VGuD88Y/edit?usp=sharing","Character info document hobbies etc.")</f>
         <v>Character info document hobbies etc.</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1438,9 +2480,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -1464,9 +2506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>14</v>
@@ -1490,9 +2532,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>20</v>
@@ -1516,119 +2558,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="H9" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="I9" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="C10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>23</v>
@@ -1646,41 +2688,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="C11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="C12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>23</v>
@@ -1698,41 +2740,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="C13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>28</v>
+      <c r="H13" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="I13" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>12.0</v>
-      </c>
-      <c r="C14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>23</v>
@@ -1750,15 +2792,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="C15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>23</v>
@@ -1777,6 +2819,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>